--- a/data/pca/factorExposure/factorExposure_2016-09-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.008763562726285807</v>
+        <v>0.01357582025432928</v>
       </c>
       <c r="C2">
-        <v>0.05129916462170073</v>
+        <v>0.04297759513470085</v>
       </c>
       <c r="D2">
-        <v>0.03388776882151062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06639694615200424</v>
+      </c>
+      <c r="E2">
+        <v>-0.05313890357584353</v>
+      </c>
+      <c r="F2">
+        <v>0.08455180636609293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05739134611615063</v>
+        <v>0.03243892166867807</v>
       </c>
       <c r="C3">
-        <v>0.1011817212369609</v>
+        <v>0.08048945885734272</v>
       </c>
       <c r="D3">
-        <v>0.0655052858828417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09512104380236146</v>
+      </c>
+      <c r="E3">
+        <v>-0.06328551856296143</v>
+      </c>
+      <c r="F3">
+        <v>0.01470263978498468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06113344756782884</v>
+        <v>0.05747062671936418</v>
       </c>
       <c r="C4">
-        <v>0.0583856174573889</v>
+        <v>0.06546258367381916</v>
       </c>
       <c r="D4">
-        <v>0.02707376682667528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06159661939622204</v>
+      </c>
+      <c r="E4">
+        <v>-0.05113672928647792</v>
+      </c>
+      <c r="F4">
+        <v>0.08630345379683921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03342167872109845</v>
+        <v>0.03363291854448579</v>
       </c>
       <c r="C6">
-        <v>0.03883997522702641</v>
+        <v>0.03557674298240648</v>
       </c>
       <c r="D6">
-        <v>0.03177266986932457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06973161213897841</v>
+      </c>
+      <c r="E6">
+        <v>-0.05943257623434442</v>
+      </c>
+      <c r="F6">
+        <v>0.07050240764874754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01764200969362047</v>
+        <v>0.01930298905670656</v>
       </c>
       <c r="C7">
-        <v>0.03963955710109774</v>
+        <v>0.03672300227677012</v>
       </c>
       <c r="D7">
-        <v>-0.001852398316632533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03920265922679347</v>
+      </c>
+      <c r="E7">
+        <v>-0.03273059411910931</v>
+      </c>
+      <c r="F7">
+        <v>0.1074650807447029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.00163842519557362</v>
+        <v>0.003885326828948074</v>
       </c>
       <c r="C8">
-        <v>0.02149962052569541</v>
+        <v>0.02761816736309254</v>
       </c>
       <c r="D8">
-        <v>0.0326904243710451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0366547672611492</v>
+      </c>
+      <c r="E8">
+        <v>-0.04220351832748952</v>
+      </c>
+      <c r="F8">
+        <v>0.05365793115725748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03102975785712038</v>
+        <v>0.03674839186028637</v>
       </c>
       <c r="C9">
-        <v>0.0420440727914756</v>
+        <v>0.05182942815638396</v>
       </c>
       <c r="D9">
-        <v>0.0160279892134133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04722103344527842</v>
+      </c>
+      <c r="E9">
+        <v>-0.04478165213651051</v>
+      </c>
+      <c r="F9">
+        <v>0.0904991645610668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07352950593387435</v>
+        <v>0.1015214709120536</v>
       </c>
       <c r="C10">
-        <v>-0.1937415557915484</v>
+        <v>-0.1918434445242966</v>
       </c>
       <c r="D10">
-        <v>0.005878584827311038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>6.590085435939894e-05</v>
+      </c>
+      <c r="E10">
+        <v>-0.0461991165981112</v>
+      </c>
+      <c r="F10">
+        <v>0.03945924688879429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03639895433383098</v>
+        <v>0.03530242393206515</v>
       </c>
       <c r="C11">
-        <v>0.05507559094821035</v>
+        <v>0.05117586473809782</v>
       </c>
       <c r="D11">
-        <v>0.007148147719741715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03478708956740331</v>
+      </c>
+      <c r="E11">
+        <v>-0.00557244614500522</v>
+      </c>
+      <c r="F11">
+        <v>0.06480606127804547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03382709769940015</v>
+        <v>0.03581766217630795</v>
       </c>
       <c r="C12">
-        <v>0.0463335191857173</v>
+        <v>0.04740469581083756</v>
       </c>
       <c r="D12">
-        <v>0.003123258506887624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02635526530693385</v>
+      </c>
+      <c r="E12">
+        <v>-0.01476699397766655</v>
+      </c>
+      <c r="F12">
+        <v>0.0663855820995494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01295362755686824</v>
+        <v>0.01215461170254464</v>
       </c>
       <c r="C13">
-        <v>0.04065492211228706</v>
+        <v>0.04015498709477047</v>
       </c>
       <c r="D13">
-        <v>0.020579612181417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06572829486011542</v>
+      </c>
+      <c r="E13">
+        <v>-0.0636334853217136</v>
+      </c>
+      <c r="F13">
+        <v>0.1137775148637708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.005866708797376548</v>
+        <v>0.005583001802015367</v>
       </c>
       <c r="C14">
-        <v>0.03256376743275394</v>
+        <v>0.02948731445268292</v>
       </c>
       <c r="D14">
-        <v>-0.01425876925880852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03056950070986762</v>
+      </c>
+      <c r="E14">
+        <v>-0.02805591274344669</v>
+      </c>
+      <c r="F14">
+        <v>0.09805410673149062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001391506538069356</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003010809440797457</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003613509322768192</v>
+      </c>
+      <c r="E15">
+        <v>-0.0003057485864379905</v>
+      </c>
+      <c r="F15">
+        <v>0.002633622205266453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03296944031746112</v>
+        <v>0.03287813597727407</v>
       </c>
       <c r="C16">
-        <v>0.04312323229094397</v>
+        <v>0.04549331848033106</v>
       </c>
       <c r="D16">
-        <v>0.008665786161451913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02996694410878792</v>
+      </c>
+      <c r="E16">
+        <v>-0.02018451102035439</v>
+      </c>
+      <c r="F16">
+        <v>0.06879500958834052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02360506526529684</v>
+        <v>0.01630481783512635</v>
       </c>
       <c r="C19">
-        <v>0.05808101149813007</v>
+        <v>0.04983497407027156</v>
       </c>
       <c r="D19">
-        <v>0.07473890166961134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1007165416401099</v>
+      </c>
+      <c r="E19">
+        <v>-0.08030050340798602</v>
+      </c>
+      <c r="F19">
+        <v>0.09229330320971854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01391740891112796</v>
+        <v>0.01350384500962252</v>
       </c>
       <c r="C20">
-        <v>0.0435304623384756</v>
+        <v>0.04029767744650596</v>
       </c>
       <c r="D20">
-        <v>0.02036745966399724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04333191237473628</v>
+      </c>
+      <c r="E20">
+        <v>-0.05748426240132643</v>
+      </c>
+      <c r="F20">
+        <v>0.08868790648445543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009191594339736861</v>
+        <v>0.008330673403424778</v>
       </c>
       <c r="C21">
-        <v>0.04907809377656279</v>
+        <v>0.04489104612560876</v>
       </c>
       <c r="D21">
-        <v>0.03677987491694773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07324701582276234</v>
+      </c>
+      <c r="E21">
+        <v>-0.07522023544261879</v>
+      </c>
+      <c r="F21">
+        <v>0.1344095991059857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.00058006740615351</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02288067076295452</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0348182086031112</v>
+      </c>
+      <c r="E22">
+        <v>-0.01771812296026548</v>
+      </c>
+      <c r="F22">
+        <v>0.01713930997460925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006476214595840871</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02300941672798945</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03451303141435889</v>
+      </c>
+      <c r="E23">
+        <v>-0.01801115180423414</v>
+      </c>
+      <c r="F23">
+        <v>0.01701472390356036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02748772898014741</v>
+        <v>0.03218260115929884</v>
       </c>
       <c r="C24">
-        <v>0.0484198342790692</v>
+        <v>0.05326173790901826</v>
       </c>
       <c r="D24">
-        <v>0.004642177744176616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02797677559280412</v>
+      </c>
+      <c r="E24">
+        <v>-0.01782974125045977</v>
+      </c>
+      <c r="F24">
+        <v>0.07660763461257658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04180183465928371</v>
+        <v>0.04221856408599475</v>
       </c>
       <c r="C25">
-        <v>0.06012275089974305</v>
+        <v>0.05775630832750741</v>
       </c>
       <c r="D25">
-        <v>-0.004855319099246244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02615440314861149</v>
+      </c>
+      <c r="E25">
+        <v>-0.01254660880596905</v>
+      </c>
+      <c r="F25">
+        <v>0.07861964312332545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.012334716600908</v>
+        <v>0.01358002502664503</v>
       </c>
       <c r="C26">
-        <v>0.01650292827673483</v>
+        <v>0.01614024970082222</v>
       </c>
       <c r="D26">
-        <v>0.0009871855008428284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02737818950169365</v>
+      </c>
+      <c r="E26">
+        <v>-0.03004234327624698</v>
+      </c>
+      <c r="F26">
+        <v>0.07397052196964597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.0855702857172836</v>
+        <v>0.1360917477255985</v>
       </c>
       <c r="C28">
-        <v>-0.2207267640991074</v>
+        <v>-0.2416058516774015</v>
       </c>
       <c r="D28">
-        <v>0.003818815303737839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01591293768562863</v>
+      </c>
+      <c r="E28">
+        <v>-0.04813074510955375</v>
+      </c>
+      <c r="F28">
+        <v>0.05209574088512987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008782316865180741</v>
+        <v>0.006535681243611366</v>
       </c>
       <c r="C29">
-        <v>0.02584341491142675</v>
+        <v>0.02553402101227209</v>
       </c>
       <c r="D29">
-        <v>-0.01466612361833151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02477050488780883</v>
+      </c>
+      <c r="E29">
+        <v>-0.03051167908408584</v>
+      </c>
+      <c r="F29">
+        <v>0.09025083644331929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04857833547157189</v>
+        <v>0.04056118998500577</v>
       </c>
       <c r="C30">
-        <v>0.0594372482681039</v>
+        <v>0.06457345192999055</v>
       </c>
       <c r="D30">
-        <v>0.05038065184614904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1093571559317758</v>
+      </c>
+      <c r="E30">
+        <v>-0.04140491721987163</v>
+      </c>
+      <c r="F30">
+        <v>0.1011011930213224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04836801181239596</v>
+        <v>0.05449764996829854</v>
       </c>
       <c r="C31">
-        <v>0.03292848021219866</v>
+        <v>0.0537775016441264</v>
       </c>
       <c r="D31">
-        <v>-0.008124337938350145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006422212627451124</v>
+      </c>
+      <c r="E31">
+        <v>-0.04955663355141311</v>
+      </c>
+      <c r="F31">
+        <v>0.08031654404092758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.005341068300971563</v>
+        <v>0.004524602218058117</v>
       </c>
       <c r="C32">
-        <v>0.04550477807293441</v>
+        <v>0.03281127587278416</v>
       </c>
       <c r="D32">
-        <v>0.02207298461203577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05105516714340189</v>
+      </c>
+      <c r="E32">
+        <v>-0.02369639645416319</v>
+      </c>
+      <c r="F32">
+        <v>0.07294040831144703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02737494502500082</v>
+        <v>0.0242077749053698</v>
       </c>
       <c r="C33">
-        <v>0.05893120895604356</v>
+        <v>0.05383205608771165</v>
       </c>
       <c r="D33">
-        <v>0.03450423571169735</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08426665749788741</v>
+      </c>
+      <c r="E33">
+        <v>-0.05164749840740099</v>
+      </c>
+      <c r="F33">
+        <v>0.126974334433055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04386027543938154</v>
+        <v>0.04041022739942394</v>
       </c>
       <c r="C34">
-        <v>0.05882197664175794</v>
+        <v>0.06349565589584952</v>
       </c>
       <c r="D34">
-        <v>-0.002280134578958831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03498241599832276</v>
+      </c>
+      <c r="E34">
+        <v>0.006024733437553138</v>
+      </c>
+      <c r="F34">
+        <v>0.07521186544090976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008707023937194044</v>
+        <v>0.01379704110849454</v>
       </c>
       <c r="C36">
-        <v>0.01379394632220836</v>
+        <v>0.0116993564608392</v>
       </c>
       <c r="D36">
-        <v>0.002147521202544922</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03023347626208292</v>
+      </c>
+      <c r="E36">
+        <v>-0.03656195714382201</v>
+      </c>
+      <c r="F36">
+        <v>0.08198023067591433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03159509252081436</v>
+        <v>0.02513643578923788</v>
       </c>
       <c r="C38">
-        <v>0.0286706628405015</v>
+        <v>0.02499866201299823</v>
       </c>
       <c r="D38">
-        <v>0.002091380594500401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02805559727197186</v>
+      </c>
+      <c r="E38">
+        <v>-0.03603537247027197</v>
+      </c>
+      <c r="F38">
+        <v>0.0668107762482312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03930280977756726</v>
+        <v>0.03808261079447741</v>
       </c>
       <c r="C39">
-        <v>0.07114537932404413</v>
+        <v>0.06839499081484071</v>
       </c>
       <c r="D39">
-        <v>0.0228962142296812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05368624253231168</v>
+      </c>
+      <c r="E39">
+        <v>-0.0191983383530181</v>
+      </c>
+      <c r="F39">
+        <v>0.0903589963973097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01682521587251962</v>
+        <v>0.01690019343438041</v>
       </c>
       <c r="C40">
-        <v>0.03057511269153431</v>
+        <v>0.03703747004484177</v>
       </c>
       <c r="D40">
-        <v>0.03627935678068012</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04352809435768693</v>
+      </c>
+      <c r="E40">
+        <v>-0.07458050597562933</v>
+      </c>
+      <c r="F40">
+        <v>0.08844111805820795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.009100024771688361</v>
+        <v>0.0180956807055391</v>
       </c>
       <c r="C41">
-        <v>0.00662261433415528</v>
+        <v>0.005830450866277634</v>
       </c>
       <c r="D41">
-        <v>0.001320037315672625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01903283201738309</v>
+      </c>
+      <c r="E41">
+        <v>-0.03866894215745034</v>
+      </c>
+      <c r="F41">
+        <v>0.07081866507959111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002617727793690128</v>
+        <v>0.001748323634262565</v>
       </c>
       <c r="C42">
-        <v>0.005195848588121866</v>
+        <v>0.00284624211037133</v>
       </c>
       <c r="D42">
-        <v>0.008917914542386903</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001200949559994501</v>
+      </c>
+      <c r="E42">
+        <v>-0.008772450968889211</v>
+      </c>
+      <c r="F42">
+        <v>-0.005907458253430918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03174947095655106</v>
+        <v>0.02943823950219589</v>
       </c>
       <c r="C43">
-        <v>0.02148497162798941</v>
+        <v>0.02100599683648659</v>
       </c>
       <c r="D43">
-        <v>0.01243039235732591</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04304836735727059</v>
+      </c>
+      <c r="E43">
+        <v>-0.04440511167705182</v>
+      </c>
+      <c r="F43">
+        <v>0.08332173394244263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01552501935700702</v>
+        <v>0.0144399252594982</v>
       </c>
       <c r="C44">
-        <v>0.05821750517874277</v>
+        <v>0.05155739896455304</v>
       </c>
       <c r="D44">
-        <v>0.01754309545658249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04186915783713238</v>
+      </c>
+      <c r="E44">
+        <v>-0.05845478222684188</v>
+      </c>
+      <c r="F44">
+        <v>0.09095688362882826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.000127146182534925</v>
+        <v>0.00755091489420307</v>
       </c>
       <c r="C46">
-        <v>0.02312615497543514</v>
+        <v>0.02492878840844488</v>
       </c>
       <c r="D46">
-        <v>-0.0184049892273341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01472990075091382</v>
+      </c>
+      <c r="E46">
+        <v>-0.03612365944967103</v>
+      </c>
+      <c r="F46">
+        <v>0.1036259577394426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08007394359167901</v>
+        <v>0.08576685240521903</v>
       </c>
       <c r="C47">
-        <v>0.07136991638350142</v>
+        <v>0.08085032510877643</v>
       </c>
       <c r="D47">
-        <v>-0.00509269588750292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01538341008913227</v>
+      </c>
+      <c r="E47">
+        <v>-0.05511730863583005</v>
+      </c>
+      <c r="F47">
+        <v>0.07699371523608718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01774234505539572</v>
+        <v>0.01574989963072182</v>
       </c>
       <c r="C48">
-        <v>0.01220687077320891</v>
+        <v>0.01722393977651834</v>
       </c>
       <c r="D48">
-        <v>-0.005436633743922023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02013669311779471</v>
+      </c>
+      <c r="E48">
+        <v>-0.04679753193599055</v>
+      </c>
+      <c r="F48">
+        <v>0.09547593052694923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0874546907800007</v>
+        <v>0.07246978070968477</v>
       </c>
       <c r="C50">
-        <v>0.06819150930410289</v>
+        <v>0.07044299025744193</v>
       </c>
       <c r="D50">
-        <v>-0.01455014712887615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002914203363979576</v>
+      </c>
+      <c r="E50">
+        <v>-0.05270651249553181</v>
+      </c>
+      <c r="F50">
+        <v>0.06712533269522261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01073603038725107</v>
+        <v>0.01045470401943112</v>
       </c>
       <c r="C51">
-        <v>0.0468883988972384</v>
+        <v>0.03318702595618515</v>
       </c>
       <c r="D51">
-        <v>0.009075487794355311</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05063351439369154</v>
+      </c>
+      <c r="E51">
+        <v>-0.02218299897944667</v>
+      </c>
+      <c r="F51">
+        <v>0.08596511108108418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08167171352932362</v>
+        <v>0.09179884653606288</v>
       </c>
       <c r="C53">
-        <v>0.07479763952417591</v>
+        <v>0.08833591311970398</v>
       </c>
       <c r="D53">
-        <v>-0.02320738095077415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0372985922410036</v>
+      </c>
+      <c r="E53">
+        <v>-0.05438490107525889</v>
+      </c>
+      <c r="F53">
+        <v>0.08752198270645958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03090513991013357</v>
+        <v>0.02734691276181556</v>
       </c>
       <c r="C54">
-        <v>0.02015545134288375</v>
+        <v>0.02654595194546691</v>
       </c>
       <c r="D54">
-        <v>0.002115723983442775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03372044041605449</v>
+      </c>
+      <c r="E54">
+        <v>-0.04036670598888402</v>
+      </c>
+      <c r="F54">
+        <v>0.09348327202435805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07129479446787573</v>
+        <v>0.08270347244339481</v>
       </c>
       <c r="C55">
-        <v>0.06527683213731357</v>
+        <v>0.0719524516051601</v>
       </c>
       <c r="D55">
-        <v>-0.02671345227763141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0446033657924023</v>
+      </c>
+      <c r="E55">
+        <v>-0.04454739012388246</v>
+      </c>
+      <c r="F55">
+        <v>0.06317549846135934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1479975205957249</v>
+        <v>0.1444131664061881</v>
       </c>
       <c r="C56">
-        <v>0.09271310370292914</v>
+        <v>0.1066145589006316</v>
       </c>
       <c r="D56">
-        <v>-0.02967020943607346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04815484216474285</v>
+      </c>
+      <c r="E56">
+        <v>-0.04887777936833199</v>
+      </c>
+      <c r="F56">
+        <v>0.04935571972835518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001595591149243906</v>
+        <v>0.0005749937951988988</v>
       </c>
       <c r="C57">
-        <v>0.003672943934976821</v>
+        <v>0.00206635391905279</v>
       </c>
       <c r="D57">
-        <v>0.0179804573551033</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01611853153222224</v>
+      </c>
+      <c r="E57">
+        <v>-0.007572243487478479</v>
+      </c>
+      <c r="F57">
+        <v>0.01083603423851881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07415657256230104</v>
+        <v>0.03059431554684619</v>
       </c>
       <c r="C58">
-        <v>0.02126238450984306</v>
+        <v>0.03929194784115989</v>
       </c>
       <c r="D58">
-        <v>0.9406805571649379</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4927841176672142</v>
+      </c>
+      <c r="E58">
+        <v>-0.6726756765734417</v>
+      </c>
+      <c r="F58">
+        <v>-0.47071577272229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1352519911490884</v>
+        <v>0.1484466114098898</v>
       </c>
       <c r="C59">
-        <v>-0.2048764237627775</v>
+        <v>-0.1860765709461716</v>
       </c>
       <c r="D59">
-        <v>0.01683896173701956</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0310445248191973</v>
+      </c>
+      <c r="E59">
+        <v>-0.02533893284672561</v>
+      </c>
+      <c r="F59">
+        <v>0.02053909124282315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3135724127362416</v>
+        <v>0.2819817196947054</v>
       </c>
       <c r="C60">
-        <v>0.09024195394021481</v>
+        <v>0.09889558242259744</v>
       </c>
       <c r="D60">
-        <v>0.0004682082230919906</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2006646669500436</v>
+      </c>
+      <c r="E60">
+        <v>0.2809681493146641</v>
+      </c>
+      <c r="F60">
+        <v>-0.1122708422023279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03692020200407505</v>
+        <v>0.03981510900483478</v>
       </c>
       <c r="C61">
-        <v>0.06442505406971914</v>
+        <v>0.0620899889860463</v>
       </c>
       <c r="D61">
-        <v>0.01211806811054911</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04792303016004892</v>
+      </c>
+      <c r="E61">
+        <v>-0.02310386002483809</v>
+      </c>
+      <c r="F61">
+        <v>0.08046843865574684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01426257578416397</v>
+        <v>0.01478557482507654</v>
       </c>
       <c r="C63">
-        <v>0.03609813936381022</v>
+        <v>0.03187292837601122</v>
       </c>
       <c r="D63">
-        <v>0.0001253966701249457</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02466507629442824</v>
+      </c>
+      <c r="E63">
+        <v>-0.03917484534871716</v>
+      </c>
+      <c r="F63">
+        <v>0.07482357374416822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05242769278228893</v>
+        <v>0.05560434087559232</v>
       </c>
       <c r="C64">
-        <v>0.03433879848962361</v>
+        <v>0.0546139639833777</v>
       </c>
       <c r="D64">
-        <v>-0.006630034712193828</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008552799518651297</v>
+      </c>
+      <c r="E64">
+        <v>-0.02287517640208101</v>
+      </c>
+      <c r="F64">
+        <v>0.08887916853141377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09068089791351699</v>
+        <v>0.0668017979321229</v>
       </c>
       <c r="C65">
-        <v>0.04060947390761963</v>
+        <v>0.038703035856607</v>
       </c>
       <c r="D65">
-        <v>0.0390765129572042</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08689151715772835</v>
+      </c>
+      <c r="E65">
+        <v>-0.03207722215397672</v>
+      </c>
+      <c r="F65">
+        <v>0.02303077795119645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.05980113018150649</v>
+        <v>0.05017666305745007</v>
       </c>
       <c r="C66">
-        <v>0.1060073367817684</v>
+        <v>0.09149577376359337</v>
       </c>
       <c r="D66">
-        <v>0.03413233542077408</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08077487024834709</v>
+      </c>
+      <c r="E66">
+        <v>-0.02094435118235419</v>
+      </c>
+      <c r="F66">
+        <v>0.0915057985487859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0549027212057669</v>
+        <v>0.04769673348559888</v>
       </c>
       <c r="C67">
-        <v>0.03357169691556679</v>
+        <v>0.03080484134741073</v>
       </c>
       <c r="D67">
-        <v>-0.003842835605165506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01440229691466955</v>
+      </c>
+      <c r="E67">
+        <v>-0.01972641022438035</v>
+      </c>
+      <c r="F67">
+        <v>0.05277624728435763</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1110086698384913</v>
+        <v>0.1534089539212053</v>
       </c>
       <c r="C68">
-        <v>-0.2863304836941305</v>
+        <v>-0.2501486832100815</v>
       </c>
       <c r="D68">
-        <v>-0.002091459873791085</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01847204272449143</v>
+      </c>
+      <c r="E68">
+        <v>-0.04203440275223687</v>
+      </c>
+      <c r="F68">
+        <v>0.01759776666846768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08581901945021037</v>
+        <v>0.08695422978476332</v>
       </c>
       <c r="C69">
-        <v>0.06603670088560375</v>
+        <v>0.08654907107633125</v>
       </c>
       <c r="D69">
-        <v>-0.03037796972891101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00874836167896764</v>
+      </c>
+      <c r="E69">
+        <v>-0.03217728195576358</v>
+      </c>
+      <c r="F69">
+        <v>0.09699334329404806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.117529358352613</v>
+        <v>0.1458152629682825</v>
       </c>
       <c r="C71">
-        <v>-0.2500800832326667</v>
+        <v>-0.2317018869469261</v>
       </c>
       <c r="D71">
-        <v>0.02545596802273259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01511319802947732</v>
+      </c>
+      <c r="E71">
+        <v>-0.06033857780259998</v>
+      </c>
+      <c r="F71">
+        <v>0.05508812118958092</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08538309457649788</v>
+        <v>0.09580492790045471</v>
       </c>
       <c r="C72">
-        <v>0.04970233905298045</v>
+        <v>0.05758802012023433</v>
       </c>
       <c r="D72">
-        <v>-0.01015832279703927</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02115494023852009</v>
+      </c>
+      <c r="E72">
+        <v>-0.01074988245876234</v>
+      </c>
+      <c r="F72">
+        <v>0.08173640223828002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4394566103050743</v>
+        <v>0.3459696943617696</v>
       </c>
       <c r="C73">
-        <v>0.06137191262689278</v>
+        <v>0.07971239070437151</v>
       </c>
       <c r="D73">
-        <v>0.07225893128142934</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4228250662182163</v>
+      </c>
+      <c r="E73">
+        <v>0.494394176935545</v>
+      </c>
+      <c r="F73">
+        <v>-0.2916344622183376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.112857729710437</v>
+        <v>0.1100753306748356</v>
       </c>
       <c r="C74">
-        <v>0.1136610205210721</v>
+        <v>0.1020979366028285</v>
       </c>
       <c r="D74">
-        <v>-0.004043135327618593</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02750813484364387</v>
+      </c>
+      <c r="E74">
+        <v>-0.06381833483524953</v>
+      </c>
+      <c r="F74">
+        <v>0.05451214094039182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2495297085096261</v>
+        <v>0.2547619402384047</v>
       </c>
       <c r="C75">
-        <v>0.1164808982423892</v>
+        <v>0.1407447973554835</v>
       </c>
       <c r="D75">
-        <v>-0.04539342247124387</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1279751777277089</v>
+      </c>
+      <c r="E75">
+        <v>-0.07508092296028114</v>
+      </c>
+      <c r="F75">
+        <v>0.01823733553877124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1121040449015887</v>
+        <v>0.1271409473149109</v>
       </c>
       <c r="C76">
-        <v>0.1014384451966522</v>
+        <v>0.1057130902613329</v>
       </c>
       <c r="D76">
-        <v>-0.02692104935384128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05764412963555021</v>
+      </c>
+      <c r="E76">
+        <v>-0.06859548471777004</v>
+      </c>
+      <c r="F76">
+        <v>0.06627983877280517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0780389832399512</v>
+        <v>0.06128595725731764</v>
       </c>
       <c r="C77">
-        <v>0.05676159424345962</v>
+        <v>0.06804242512101297</v>
       </c>
       <c r="D77">
-        <v>0.04994410087868297</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06560933720015437</v>
+      </c>
+      <c r="E77">
+        <v>-0.06659857433513282</v>
+      </c>
+      <c r="F77">
+        <v>0.1093975115653612</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0442481088273619</v>
+        <v>0.0431499642691164</v>
       </c>
       <c r="C78">
-        <v>0.04275240765280088</v>
+        <v>0.05413270750459474</v>
       </c>
       <c r="D78">
-        <v>0.01764636357350295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07404679633082861</v>
+      </c>
+      <c r="E78">
+        <v>-0.0233573595634734</v>
+      </c>
+      <c r="F78">
+        <v>0.1043842801311339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02290889542027222</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03975340203819162</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05841754813246235</v>
+      </c>
+      <c r="E79">
+        <v>-0.05100617817608882</v>
+      </c>
+      <c r="F79">
+        <v>0.03410572444108816</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04429716852980584</v>
+        <v>0.03337777571223739</v>
       </c>
       <c r="C80">
-        <v>0.05442723672433909</v>
+        <v>0.05411959308234232</v>
       </c>
       <c r="D80">
-        <v>0.02627406902816494</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04795623538193507</v>
+      </c>
+      <c r="E80">
+        <v>-0.007762858811412794</v>
+      </c>
+      <c r="F80">
+        <v>0.03159251376910879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.143506794018857</v>
+        <v>0.1393947384683024</v>
       </c>
       <c r="C81">
-        <v>0.07811574643504433</v>
+        <v>0.0988672534291634</v>
       </c>
       <c r="D81">
-        <v>-0.0209690105598701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09383356213804361</v>
+      </c>
+      <c r="E81">
+        <v>-0.08239567351898971</v>
+      </c>
+      <c r="F81">
+        <v>0.02021700657188114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1254287167345189</v>
+        <v>0.1946587697906156</v>
       </c>
       <c r="C82">
-        <v>0.06046687993176848</v>
+        <v>0.1398405926705557</v>
       </c>
       <c r="D82">
-        <v>-0.1115251094139131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2271034472326652</v>
+      </c>
+      <c r="E82">
+        <v>-0.01748508781600994</v>
+      </c>
+      <c r="F82">
+        <v>0.08461968247298872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03213768768743931</v>
+        <v>0.02653736225030492</v>
       </c>
       <c r="C83">
-        <v>0.01951605967562202</v>
+        <v>0.04063169790945236</v>
       </c>
       <c r="D83">
-        <v>0.0170114256606335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03604147760503616</v>
+      </c>
+      <c r="E83">
+        <v>-0.008880703835852068</v>
+      </c>
+      <c r="F83">
+        <v>0.04689008408017551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2275467302648944</v>
+        <v>0.2037016647360481</v>
       </c>
       <c r="C85">
-        <v>0.1120655629035895</v>
+        <v>0.1251474288044603</v>
       </c>
       <c r="D85">
-        <v>-0.08938899651029333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1038258541902466</v>
+      </c>
+      <c r="E85">
+        <v>-0.00678769994112535</v>
+      </c>
+      <c r="F85">
+        <v>-0.01879582293871526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003599129976800162</v>
+        <v>0.01209547823964235</v>
       </c>
       <c r="C86">
-        <v>0.02303630356953007</v>
+        <v>0.03061802734074303</v>
       </c>
       <c r="D86">
-        <v>0.02815777857973092</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07373110638151187</v>
+      </c>
+      <c r="E86">
+        <v>-0.04472605281083023</v>
+      </c>
+      <c r="F86">
+        <v>0.1389876164930346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01737548611289101</v>
+        <v>0.02001508602115722</v>
       </c>
       <c r="C87">
-        <v>0.01902519590947533</v>
+        <v>0.0217072827643469</v>
       </c>
       <c r="D87">
-        <v>0.09111823602093259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09387243084973008</v>
+      </c>
+      <c r="E87">
+        <v>-0.08634632211080541</v>
+      </c>
+      <c r="F87">
+        <v>0.09187447860377655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1022286718460559</v>
+        <v>0.08984081850656953</v>
       </c>
       <c r="C88">
-        <v>0.07278307566904002</v>
+        <v>0.06413654635919765</v>
       </c>
       <c r="D88">
-        <v>-0.0159530031725329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01228907398986791</v>
+      </c>
+      <c r="E88">
+        <v>-0.0314252277479605</v>
+      </c>
+      <c r="F88">
+        <v>0.06777450123274713</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1863333719955975</v>
+        <v>0.2284386925941884</v>
       </c>
       <c r="C89">
-        <v>-0.3762384123404789</v>
+        <v>-0.3785343195354492</v>
       </c>
       <c r="D89">
-        <v>-0.02589425889169079</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01275621167735744</v>
+      </c>
+      <c r="E89">
+        <v>-0.04226245541421166</v>
+      </c>
+      <c r="F89">
+        <v>0.1010579515975893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1744591093610441</v>
+        <v>0.2054721137184043</v>
       </c>
       <c r="C90">
-        <v>-0.3433227167448155</v>
+        <v>-0.3129018747739971</v>
       </c>
       <c r="D90">
-        <v>-0.01258273939782231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01290513743729773</v>
+      </c>
+      <c r="E90">
+        <v>-0.06661652462910923</v>
+      </c>
+      <c r="F90">
+        <v>0.04826177621877313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1986277381382789</v>
+        <v>0.1881071641769785</v>
       </c>
       <c r="C91">
-        <v>0.1131875517826188</v>
+        <v>0.1415300229494964</v>
       </c>
       <c r="D91">
-        <v>-0.04342379430510366</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1012998217515402</v>
+      </c>
+      <c r="E91">
+        <v>-0.07180675256104933</v>
+      </c>
+      <c r="F91">
+        <v>0.04215282874652697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1696505881607726</v>
+        <v>0.1851323519509311</v>
       </c>
       <c r="C92">
-        <v>-0.2897180153252268</v>
+        <v>-0.2794310046264775</v>
       </c>
       <c r="D92">
-        <v>-0.01076795591760074</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003647528341898216</v>
+      </c>
+      <c r="E92">
+        <v>-0.07022140375876948</v>
+      </c>
+      <c r="F92">
+        <v>0.07069224485289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2011323056521423</v>
+        <v>0.2290987435929886</v>
       </c>
       <c r="C93">
-        <v>-0.3420485511527352</v>
+        <v>-0.3179778171602065</v>
       </c>
       <c r="D93">
-        <v>-0.001928978295487354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003174580712101553</v>
+      </c>
+      <c r="E93">
+        <v>-0.05062951531436361</v>
+      </c>
+      <c r="F93">
+        <v>0.04268045813396688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3191924836253384</v>
+        <v>0.3398506296048646</v>
       </c>
       <c r="C94">
-        <v>0.170582629397537</v>
+        <v>0.1931044468603953</v>
       </c>
       <c r="D94">
-        <v>-0.1854097257293308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4753511473436759</v>
+      </c>
+      <c r="E94">
+        <v>-0.1487085822921681</v>
+      </c>
+      <c r="F94">
+        <v>-0.4352862142134461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.08942877720253445</v>
+        <v>0.0821394762929047</v>
       </c>
       <c r="C95">
-        <v>0.05620825944685001</v>
+        <v>0.07005928573026735</v>
       </c>
       <c r="D95">
-        <v>0.03339891049270029</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1552909361773549</v>
+      </c>
+      <c r="E95">
+        <v>0.1325096360251067</v>
+      </c>
+      <c r="F95">
+        <v>0.1923529733422407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1959461360400734</v>
+        <v>0.1882150800454055</v>
       </c>
       <c r="C98">
-        <v>0.01695584996098756</v>
+        <v>0.04146256858460554</v>
       </c>
       <c r="D98">
-        <v>0.04429476736846256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1733672235668968</v>
+      </c>
+      <c r="E98">
+        <v>0.1589913042251533</v>
+      </c>
+      <c r="F98">
+        <v>-0.04061515507334811</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.008519461840911253</v>
+        <v>0.006419881336308767</v>
       </c>
       <c r="C101">
-        <v>0.02598285246285443</v>
+        <v>0.02528900131596133</v>
       </c>
       <c r="D101">
-        <v>-0.01493182523660945</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02411023017152878</v>
+      </c>
+      <c r="E101">
+        <v>-0.030991748482613</v>
+      </c>
+      <c r="F101">
+        <v>0.08978621043181102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1219024364669214</v>
+        <v>0.1224317780902301</v>
       </c>
       <c r="C102">
-        <v>0.07328654964304319</v>
+        <v>0.1010255569419401</v>
       </c>
       <c r="D102">
-        <v>-0.03092684085524354</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05091753711825827</v>
+      </c>
+      <c r="E102">
+        <v>0.007919113073467978</v>
+      </c>
+      <c r="F102">
+        <v>0.04033366474076452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
